--- a/SUIVI_GLOBAL_P5.xlsx
+++ b/SUIVI_GLOBAL_P5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIARRA\Documents\Cour MDSIA\Streamlit\etudiant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIARRA\Documents\Sonatel\projetapprenant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F83B9C-959C-4805-8056-C4F7301D3D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A5B26-7E55-4044-9AB4-F7AE79B5965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,10 +68,10 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId9"/>
-    <pivotCache cacheId="5" r:id="rId10"/>
-    <pivotCache cacheId="6" r:id="rId11"/>
-    <pivotCache cacheId="7" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="5" r:id="rId11"/>
+    <pivotCache cacheId="6" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -15026,7 +15026,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tableau croisé dynamique2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A14:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -15201,7 +15201,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tableau croisé dynamique1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tableau croisé dynamique1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -15360,7 +15360,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="Tableau croisé dynamique1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -15678,7 +15678,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="Tableau croisé dynamique2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A79:A105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -16196,11 +16196,11 @@
   <dimension ref="A1:AE114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
       <selection pane="topRight" activeCell="G36" sqref="G36"/>
       <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
-      <selection pane="bottomRight" activeCell="AE17" sqref="AE17"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>

--- a/SUIVI_GLOBAL_P5.xlsx
+++ b/SUIVI_GLOBAL_P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIARRA\Documents\Sonatel\projetapprenant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A5B26-7E55-4044-9AB4-F7AE79B5965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2522F-152A-4EA7-B773-3B51BCF50EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GLOBAL!$A$2:$AE$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HACKEUSE!$B$1:$AD$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SORTIES!$C$1:$L$1</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GLOBALA2AD1131" hidden="1">GLOBAL!$A$2:$AD$113</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GLOBALA2AJ1141" hidden="1">GLOBAL!$A$14:$AE$14</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GLOBALA2Z1141" hidden="1">GLOBAL!$A$2:$AA$113</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GLOBALA2AD113" hidden="1">GLOBAL!$A$2:$AD$113</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GLOBALA2AJ114" hidden="1">GLOBAL!$A$14:$AE$14</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GLOBALA2Z114" hidden="1">GLOBAL!$A$2:$AA$113</definedName>
     <definedName name="ABANDON_?">GLOBAL!#REF!</definedName>
     <definedName name="ABSENTEISTE_?">GLOBAL!#REF!</definedName>
     <definedName name="ADRESSE">GLOBAL!$J$3:$J$113</definedName>
@@ -140,7 +140,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Plage-b617edaa-1d4d-4c19-bde4-c629ddbf9cff" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2AD1131"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2AD113"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -149,7 +149,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Plage1-b18c063b-eb0a-4141-9a62-e427bdccd0fd" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2AJ1141"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2AJ114"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -158,7 +158,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Plage2-c55c686f-e9f6-456d-b08f-77960a4748f8" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2Z1141"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2Z114"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1198">
   <si>
     <t>NOM</t>
   </si>
@@ -15026,6 +15026,165 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tableau croisé dynamique1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de N° CIN" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="100">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="21"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_GLOBAL!$A$2:$AD$113">
+        <x15:activeTabTopLevelEntity name="[Plage]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A14:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -15183,165 +15342,6 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="22"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_GLOBAL!$A$2:$AD$113">
-        <x15:activeTabTopLevelEntity name="[Plage]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tableau croisé dynamique1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de N° CIN" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="100">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="21"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16195,12 +16195,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="V96" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
       <selection pane="topRight" activeCell="G36" sqref="G36"/>
       <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="AB100" sqref="AB100:AB113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -17729,7 +17729,9 @@
       <c r="AA20" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="AB20" s="300"/>
+      <c r="AB20" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC20" s="307"/>
       <c r="AD20" s="92" t="s">
         <v>642</v>
@@ -17797,7 +17799,9 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="30"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="300"/>
+      <c r="AB21" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC21" s="300" t="s">
         <v>769</v>
       </c>
@@ -17869,7 +17873,9 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="30"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="300"/>
+      <c r="AB22" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC22" s="300"/>
       <c r="AD22" s="92" t="s">
         <v>638</v>
@@ -17941,7 +17947,9 @@
       <c r="AA23" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="AB23" s="300"/>
+      <c r="AB23" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC23" s="300"/>
       <c r="AD23" s="92" t="s">
         <v>672</v>
@@ -19817,8 +19825,8 @@
       <c r="AA47" s="52" t="s">
         <v>607</v>
       </c>
-      <c r="AB47" s="301" t="s">
-        <v>1133</v>
+      <c r="AB47" s="300" t="s">
+        <v>1134</v>
       </c>
       <c r="AC47" s="324" t="s">
         <v>795</v>
@@ -19893,7 +19901,9 @@
       <c r="AA48" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="AB48" s="300"/>
+      <c r="AB48" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC48" s="300" t="s">
         <v>579</v>
       </c>
@@ -19969,7 +19979,9 @@
         <v>1</v>
       </c>
       <c r="AA49" s="5"/>
-      <c r="AB49" s="300"/>
+      <c r="AB49" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC49" s="300"/>
       <c r="AD49" s="92" t="s">
         <v>648</v>
@@ -20101,7 +20113,9 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="30"/>
       <c r="AA51" s="5"/>
-      <c r="AB51" s="300"/>
+      <c r="AB51" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC51" s="300" t="s">
         <v>818</v>
       </c>
@@ -20175,7 +20189,9 @@
         <v>9</v>
       </c>
       <c r="AA52" s="5"/>
-      <c r="AB52" s="300"/>
+      <c r="AB52" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC52" s="300" t="s">
         <v>818</v>
       </c>
@@ -20251,7 +20267,9 @@
         <v>3</v>
       </c>
       <c r="AA53" s="5"/>
-      <c r="AB53" s="300"/>
+      <c r="AB53" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC53" s="300"/>
       <c r="AD53" s="92" t="s">
         <v>657</v>
@@ -20327,7 +20345,9 @@
       <c r="AA54" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="AB54" s="300"/>
+      <c r="AB54" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC54" s="300"/>
       <c r="AD54" s="92" t="s">
         <v>663</v>
@@ -20395,7 +20415,9 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="30"/>
       <c r="AA55" s="5"/>
-      <c r="AB55" s="300"/>
+      <c r="AB55" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC55" s="300" t="s">
         <v>818</v>
       </c>
@@ -20519,7 +20541,9 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="30"/>
       <c r="AA57" s="5"/>
-      <c r="AB57" s="300"/>
+      <c r="AB57" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC57" s="300"/>
       <c r="AD57" s="92" t="s">
         <v>675</v>
@@ -20581,7 +20605,9 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="30"/>
       <c r="AA58" s="5"/>
-      <c r="AB58" s="300"/>
+      <c r="AB58" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC58" s="300" t="s">
         <v>818</v>
       </c>
@@ -20715,7 +20741,9 @@
       <c r="AA60" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="AB60" s="300"/>
+      <c r="AB60" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC60" s="300"/>
       <c r="AD60" s="92" t="s">
         <v>681</v>
@@ -20777,7 +20805,9 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="30"/>
       <c r="AA61" s="5"/>
-      <c r="AB61" s="300"/>
+      <c r="AB61" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC61" s="300"/>
       <c r="AD61" s="92" t="s">
         <v>682</v>
@@ -20847,7 +20877,9 @@
       <c r="AA62" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="AB62" s="300"/>
+      <c r="AB62" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC62" s="300"/>
       <c r="AD62" s="92" t="s">
         <v>683</v>
@@ -20921,7 +20953,9 @@
         <v>3</v>
       </c>
       <c r="AA63" s="5"/>
-      <c r="AB63" s="300"/>
+      <c r="AB63" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC63" s="300"/>
       <c r="AD63" s="92" t="s">
         <v>684</v>
@@ -20993,7 +21027,9 @@
         <v>3</v>
       </c>
       <c r="AA64" s="5"/>
-      <c r="AB64" s="300"/>
+      <c r="AB64" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC64" s="300"/>
       <c r="AD64" s="92" t="s">
         <v>685</v>
@@ -23832,7 +23868,9 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="30"/>
       <c r="AA101" s="5"/>
-      <c r="AB101" s="300"/>
+      <c r="AB101" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC101" s="300" t="s">
         <v>610</v>
       </c>
@@ -23906,7 +23944,9 @@
         <v>3</v>
       </c>
       <c r="AA102" s="5"/>
-      <c r="AB102" s="300"/>
+      <c r="AB102" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC102" s="300" t="s">
         <v>580</v>
       </c>
@@ -23970,7 +24010,9 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="30"/>
       <c r="AA103" s="5"/>
-      <c r="AB103" s="300"/>
+      <c r="AB103" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC103" s="300"/>
       <c r="AD103" s="92" t="s">
         <v>711</v>
@@ -24034,7 +24076,9 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="30"/>
       <c r="AA104" s="5"/>
-      <c r="AB104" s="300"/>
+      <c r="AB104" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC104" s="300"/>
       <c r="AD104" s="92" t="s">
         <v>695</v>
@@ -24098,7 +24142,9 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="30"/>
       <c r="AA105" s="5"/>
-      <c r="AB105" s="300"/>
+      <c r="AB105" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC105" s="300"/>
       <c r="AD105" s="92" t="s">
         <v>709</v>
@@ -24290,7 +24336,9 @@
       <c r="AA108" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="AB108" s="300"/>
+      <c r="AB108" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC108" s="300"/>
       <c r="AD108" s="92" t="s">
         <v>719</v>
@@ -24508,7 +24556,9 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="30"/>
       <c r="AA111" s="5"/>
-      <c r="AB111" s="300"/>
+      <c r="AB111" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC111" s="300"/>
       <c r="AD111" s="92" t="s">
         <v>730</v>
@@ -24646,7 +24696,9 @@
       <c r="Y113" s="111"/>
       <c r="Z113" s="113"/>
       <c r="AA113" s="111"/>
-      <c r="AB113" s="311"/>
+      <c r="AB113" s="300" t="s">
+        <v>1134</v>
+      </c>
       <c r="AC113" s="311"/>
       <c r="AD113" s="114" t="s">
         <v>737</v>

--- a/SUIVI_GLOBAL_P5.xlsx
+++ b/SUIVI_GLOBAL_P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIARRA\Documents\Sonatel\projetapprenant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2522F-152A-4EA7-B773-3B51BCF50EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B70CC-3E9E-4442-B5DB-EB7AD60A479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GLOBAL!$A$2:$AE$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HACKEUSE!$B$1:$AD$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SORTIES!$C$1:$L$1</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GLOBALA2AD113" hidden="1">GLOBAL!$A$2:$AD$113</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GLOBALA2AJ114" hidden="1">GLOBAL!$A$14:$AE$14</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GLOBALA2Z114" hidden="1">GLOBAL!$A$2:$AA$113</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GLOBALA2AD1131" hidden="1">GLOBAL!$A$2:$AD$113</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GLOBALA2AJ1141" hidden="1">GLOBAL!$A$14:$AE$14</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GLOBALA2Z1141" hidden="1">GLOBAL!$A$2:$AA$113</definedName>
     <definedName name="ABANDON_?">GLOBAL!#REF!</definedName>
     <definedName name="ABSENTEISTE_?">GLOBAL!#REF!</definedName>
     <definedName name="ADRESSE">GLOBAL!$J$3:$J$113</definedName>
@@ -68,10 +68,10 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="5" r:id="rId11"/>
-    <pivotCache cacheId="6" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -140,7 +140,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Plage-b617edaa-1d4d-4c19-bde4-c629ddbf9cff" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2AD113"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2AD1131"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -149,7 +149,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Plage1-b18c063b-eb0a-4141-9a62-e427bdccd0fd" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2AJ114"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2AJ1141"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -158,7 +158,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Plage2-c55c686f-e9f6-456d-b08f-77960a4748f8" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2Z114"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GLOBALA2Z1141"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -15026,166 +15026,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tableau croisé dynamique1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de N° CIN" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="100">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="21"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_GLOBAL!$A$2:$AD$113">
-        <x15:activeTabTopLevelEntity name="[Plage]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tableau croisé dynamique2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A14:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -15359,8 +15200,167 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tableau croisé dynamique1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de N° CIN" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="100">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="21"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_GLOBAL!$A$2:$AD$113">
+        <x15:activeTabTopLevelEntity name="[Plage]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="Tableau croisé dynamique1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -15678,7 +15678,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="Tableau croisé dynamique2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A79:A105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -16196,11 +16196,11 @@
   <dimension ref="A1:AE114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="V96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
       <selection pane="topRight" activeCell="G36" sqref="G36"/>
       <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
-      <selection pane="bottomRight" activeCell="AB100" sqref="AB100:AB113"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
